--- a/我的创作/股票/技术投资/交易计划可行性分析.xlsx
+++ b/我的创作/股票/技术投资/交易计划可行性分析.xlsx
@@ -358,6 +358,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>003040(</t>
     </r>
     <r>
@@ -540,6 +546,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>002932(</t>
     </r>
     <r>
@@ -1476,12 +1488,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
@@ -1601,7 +1613,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1615,17 +1627,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1636,11 +1656,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1654,7 +1674,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1668,18 +1695,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1700,15 +1727,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1723,14 +1742,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1795,19 +1807,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1819,13 +1837,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1837,7 +1849,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1849,79 +1891,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1939,7 +1915,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1951,31 +1981,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2058,6 +2070,47 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2086,191 +2139,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2305,7 +2317,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2356,7 +2368,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2548,34 +2560,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2584,7 +2596,7 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2596,19 +2608,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3815,9 +3827,9 @@
   <dimension ref="A1:DO545"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
